--- a/ruby/res/test3.xlsx
+++ b/ruby/res/test3.xlsx
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="E6:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,69 +434,69 @@
     <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="G7" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="G8" s="2">
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="G9" s="2">
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="G10" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="G11" s="2">
         <v>2009</v>
       </c>
     </row>
